--- a/RESULT/QM/产成品检验及时率.xlsx
+++ b/RESULT/QM/产成品检验及时率.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\Python\Source\KPI\RESULT\QM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B776F2-9F92-4E96-96DB-D8BBDEA4CE36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="产成品检验及时率" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -40,93 +46,98 @@
     <t>SC20211009001</t>
   </si>
   <si>
+    <t>888515800</t>
+  </si>
+  <si>
+    <t>行程开关垫板</t>
+  </si>
+  <si>
+    <t>正常</t>
+  </si>
+  <si>
     <t>SC20211018001</t>
   </si>
   <si>
+    <t>888510387</t>
+  </si>
+  <si>
+    <t>导向体</t>
+  </si>
+  <si>
+    <t>888510388</t>
+  </si>
+  <si>
+    <t>连接杆</t>
+  </si>
+  <si>
     <t>SC20211018002</t>
   </si>
   <si>
     <t>SC20211018003</t>
   </si>
   <si>
+    <t>888504235</t>
+  </si>
+  <si>
+    <t>导向杆座</t>
+  </si>
+  <si>
     <t>SC20211009009</t>
   </si>
   <si>
+    <t>888515839</t>
+  </si>
+  <si>
+    <t>左端板</t>
+  </si>
+  <si>
+    <t>888515840</t>
+  </si>
+  <si>
+    <t>右端板</t>
+  </si>
+  <si>
+    <t>888515842</t>
+  </si>
+  <si>
+    <t>加强板</t>
+  </si>
+  <si>
+    <t>888515850</t>
+  </si>
+  <si>
+    <t>法兰</t>
+  </si>
+  <si>
     <t>SC20211009012</t>
-  </si>
-  <si>
-    <t>888515800</t>
-  </si>
-  <si>
-    <t>888510387</t>
-  </si>
-  <si>
-    <t>888510388</t>
-  </si>
-  <si>
-    <t>888504235</t>
-  </si>
-  <si>
-    <t>888515839</t>
-  </si>
-  <si>
-    <t>888515840</t>
-  </si>
-  <si>
-    <t>888515842</t>
-  </si>
-  <si>
-    <t>888515850</t>
-  </si>
-  <si>
-    <t>行程开关垫板</t>
-  </si>
-  <si>
-    <t>导向体</t>
-  </si>
-  <si>
-    <t>连接杆</t>
-  </si>
-  <si>
-    <t>导向杆座</t>
-  </si>
-  <si>
-    <t>左端板</t>
-  </si>
-  <si>
-    <t>右端板</t>
-  </si>
-  <si>
-    <t>加强板</t>
-  </si>
-  <si>
-    <t>法兰</t>
-  </si>
-  <si>
-    <t>正常</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -170,13 +181,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -464,14 +483,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -494,7 +521,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -502,25 +529,25 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2">
-        <v>44482.66806712963</v>
+        <v>44482.668067129627</v>
       </c>
       <c r="F2" s="2">
-        <v>44483.34928240741</v>
+        <v>44483.349282407413</v>
       </c>
       <c r="G2">
         <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -528,25 +555,25 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2">
-        <v>44484.55387731481</v>
+        <v>44484.553877314807</v>
       </c>
       <c r="F3" s="2">
-        <v>44484.69820601852</v>
+        <v>44484.698206018518</v>
       </c>
       <c r="G3">
         <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -554,13 +581,13 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E4" s="2">
-        <v>44484.55387731481</v>
+        <v>44484.553877314807</v>
       </c>
       <c r="F4" s="2">
         <v>44484.69902777778</v>
@@ -569,102 +596,102 @@
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2">
-        <v>44490.35322916666</v>
+        <v>44490.353229166663</v>
       </c>
       <c r="F5" s="2">
-        <v>44490.35690972222</v>
+        <v>44490.356909722221</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
         <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
       </c>
       <c r="E6" s="2">
         <v>44490.35324074074</v>
       </c>
       <c r="F6" s="2">
-        <v>44490.35890046296</v>
+        <v>44490.358900462961</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7" s="2">
-        <v>44490.35325231482</v>
+        <v>44490.353252314817</v>
       </c>
       <c r="F7" s="2">
-        <v>44490.35898148148</v>
+        <v>44490.358981481477</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E8" s="2">
-        <v>44490.35326388889</v>
+        <v>44490.353263888886</v>
       </c>
       <c r="F8" s="2">
         <v>44490.3590625</v>
@@ -673,24 +700,24 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9" s="2">
-        <v>44496.44826388889</v>
+        <v>44496.448263888888</v>
       </c>
       <c r="F9" s="2">
         <v>44496.45008101852</v>
@@ -699,192 +726,193 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E10" s="2">
-        <v>44496.44827546296</v>
+        <v>44496.448275462957</v>
       </c>
       <c r="F10" s="2">
-        <v>44496.45009259259</v>
+        <v>44496.450092592589</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="2">
+        <v>44496.448287037027</v>
+      </c>
+      <c r="F11" s="2">
+        <v>44496.450092592589</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
         <v>27</v>
-      </c>
-      <c r="E11" s="2">
-        <v>44496.44828703703</v>
-      </c>
-      <c r="F11" s="2">
-        <v>44496.45009259259</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
       </c>
       <c r="D12" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="2">
-        <v>44496.44828703703</v>
+        <v>44496.448287037027</v>
       </c>
       <c r="F12" s="2">
-        <v>44496.45009259259</v>
+        <v>44496.450092592589</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E13" s="2">
-        <v>44496.45091435185</v>
+        <v>44496.450914351852</v>
       </c>
       <c r="F13" s="2">
-        <v>44496.45295138889</v>
+        <v>44496.452951388892</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E14" s="2">
-        <v>44496.45091435185</v>
+        <v>44496.450914351852</v>
       </c>
       <c r="F14" s="2">
-        <v>44496.45295138889</v>
+        <v>44496.452951388892</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E15" s="2">
-        <v>44496.45092592593</v>
+        <v>44496.450925925928</v>
       </c>
       <c r="F15" s="2">
-        <v>44496.45295138889</v>
+        <v>44496.452951388892</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>28</v>
       </c>
       <c r="E16" s="2">
-        <v>44496.4509375</v>
+        <v>44496.450937499998</v>
       </c>
       <c r="F16" s="2">
-        <v>44496.45296296296</v>
+        <v>44496.452962962961</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>